--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="109">
   <si>
     <t>Year</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>55.000</t>
+  </si>
+  <si>
+    <t>Obv: Without mint director symbol</t>
   </si>
 </sst>
 </file>
@@ -946,6 +949,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,15 +970,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,14 +979,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1049,143 +1053,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1217,9 +1084,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="27"/>
-    <tableColumn id="2" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1491,10 +1358,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1509,16 +1376,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1528,18 +1395,18 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="2"/>
@@ -1551,7 +1418,7 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -1575,7 +1442,7 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1599,7 +1466,7 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1623,7 +1490,7 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1648,7 +1515,7 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1673,7 +1540,7 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1697,7 +1564,7 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1721,7 +1588,7 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1748,7 +1615,9 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
@@ -1770,7 +1639,9 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +1663,9 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
@@ -1814,7 +1687,9 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>55</v>
       </c>
@@ -1836,7 +1711,9 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
@@ -1858,7 +1735,9 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1759,9 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>56</v>
       </c>
@@ -1902,7 +1783,9 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>57</v>
       </c>
@@ -1924,7 +1807,9 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1831,9 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>57</v>
       </c>
@@ -1968,7 +1855,9 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1990,7 +1879,9 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
@@ -2009,7 +1900,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2037,7 +1928,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E22"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2052,16 +1943,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2071,18 +1962,18 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="2"/>
@@ -2094,7 +1985,7 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2119,7 +2010,7 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -2144,7 +2035,7 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -2168,7 +2059,7 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2192,7 +2083,7 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2216,7 +2107,7 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -2240,7 +2131,7 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2264,7 +2155,7 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -2291,7 +2182,9 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
@@ -2313,7 +2206,9 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2335,7 +2230,9 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
@@ -2357,7 +2254,9 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>55</v>
       </c>
@@ -2379,7 +2278,9 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2401,7 +2302,9 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
@@ -2423,7 +2326,9 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +2350,9 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>57</v>
       </c>
@@ -2467,7 +2374,9 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2489,7 +2398,9 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>57</v>
       </c>
@@ -2511,7 +2422,9 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2533,7 +2446,9 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
@@ -2552,7 +2467,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2580,7 +2495,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E22"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2595,16 +2510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2614,18 +2529,18 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="2"/>
@@ -2637,7 +2552,7 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2662,7 +2577,7 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -2687,7 +2602,7 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -2711,7 +2626,7 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2735,7 +2650,7 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2759,7 +2674,7 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -2783,7 +2698,7 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2807,7 +2722,7 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -2834,7 +2749,9 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2773,9 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>54</v>
       </c>
@@ -2878,7 +2797,9 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
@@ -2900,7 +2821,9 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>55</v>
       </c>
@@ -2922,7 +2845,9 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2944,7 +2869,9 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
@@ -2966,7 +2893,9 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2988,7 +2917,9 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +2941,9 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
@@ -3032,7 +2965,9 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>57</v>
       </c>
@@ -3054,7 +2989,9 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>70</v>
       </c>
@@ -3076,7 +3013,9 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
@@ -3095,7 +3034,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3119,11 +3058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3138,17 +3077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3097,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3169,10 +3108,10 @@
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2"/>
@@ -3184,14 +3123,14 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>71</v>
@@ -3211,14 +3150,14 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>72</v>
@@ -3238,14 +3177,14 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>73</v>
@@ -3265,14 +3204,14 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>74</v>
@@ -3293,14 +3232,14 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -3321,14 +3260,14 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>68</v>
@@ -3348,14 +3287,14 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>55</v>
@@ -3375,14 +3314,14 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>54</v>
@@ -3405,9 +3344,11 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>54</v>
@@ -3430,9 +3371,11 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>54</v>
@@ -3455,9 +3398,11 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>54</v>
@@ -3480,9 +3425,11 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>55</v>
@@ -3505,9 +3452,11 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>55</v>
@@ -3530,9 +3479,11 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>75</v>
@@ -3555,9 +3506,11 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>56</v>
@@ -3580,9 +3533,11 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>57</v>
@@ -3605,9 +3560,11 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>76</v>
@@ -3630,9 +3587,11 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>57</v>
@@ -3655,9 +3614,11 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>58</v>
@@ -3680,9 +3641,11 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>59</v>
@@ -3702,7 +3665,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3732,7 +3695,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3747,17 +3710,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3767,8 +3730,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3778,10 +3741,10 @@
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2"/>
@@ -3793,14 +3756,14 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>77</v>
@@ -3821,14 +3784,14 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>34</v>
@@ -3849,14 +3812,14 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>78</v>
@@ -3876,14 +3839,14 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>79</v>
@@ -3903,14 +3866,14 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -3930,14 +3893,14 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>68</v>
@@ -3957,14 +3920,14 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>55</v>
@@ -3984,14 +3947,14 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>54</v>
@@ -4014,9 +3977,11 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>54</v>
@@ -4039,9 +4004,11 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>54</v>
@@ -4064,9 +4031,11 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>54</v>
@@ -4089,9 +4058,11 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>55</v>
@@ -4114,9 +4085,11 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>80</v>
@@ -4139,9 +4112,11 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>75</v>
@@ -4164,9 +4139,11 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>56</v>
@@ -4189,9 +4166,11 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>57</v>
@@ -4214,9 +4193,11 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>76</v>
@@ -4239,9 +4220,11 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>57</v>
@@ -4264,9 +4247,11 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>58</v>
@@ -4289,9 +4274,11 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>59</v>
@@ -4311,7 +4298,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4341,7 +4328,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4356,17 +4343,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4363,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4387,10 +4374,10 @@
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2"/>
@@ -4402,14 +4389,14 @@
       <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>81</v>
@@ -4430,14 +4417,14 @@
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>82</v>
@@ -4458,14 +4445,14 @@
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>83</v>
@@ -4485,14 +4472,14 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>84</v>
@@ -4512,14 +4499,14 @@
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -4539,14 +4526,14 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>68</v>
@@ -4566,14 +4553,14 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>85</v>
@@ -4593,14 +4580,14 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>86</v>
@@ -4623,9 +4610,11 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>54</v>
@@ -4648,9 +4637,11 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>87</v>
@@ -4673,9 +4664,11 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>88</v>
@@ -4698,9 +4691,11 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>55</v>
@@ -4723,9 +4718,11 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>33</v>
@@ -4748,9 +4745,11 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>85</v>
@@ -4773,9 +4772,11 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>56</v>
@@ -4798,9 +4799,11 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>57</v>
@@ -4823,9 +4826,11 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>57</v>
@@ -4848,9 +4853,11 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>57</v>
@@ -4873,9 +4880,11 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>58</v>
@@ -4898,9 +4907,11 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>59</v>
@@ -4920,7 +4931,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4950,7 +4961,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4965,17 +4976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4985,8 +4996,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4996,10 +5007,10 @@
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2"/>
@@ -5011,14 +5022,14 @@
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>89</v>
@@ -5039,14 +5050,14 @@
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>90</v>
@@ -5068,14 +5079,14 @@
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>91</v>
@@ -5095,14 +5106,14 @@
       <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>92</v>
@@ -5122,14 +5133,14 @@
       <c r="B7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -5149,14 +5160,14 @@
       <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>93</v>
@@ -5176,14 +5187,14 @@
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>94</v>
@@ -5203,14 +5214,14 @@
       <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>95</v>
@@ -5233,9 +5244,11 @@
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>54</v>
@@ -5258,9 +5271,11 @@
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>54</v>
@@ -5283,9 +5298,11 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>54</v>
@@ -5308,9 +5325,11 @@
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>55</v>
@@ -5333,9 +5352,11 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>55</v>
@@ -5358,9 +5379,11 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>55</v>
@@ -5383,9 +5406,11 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>56</v>
@@ -5408,9 +5433,11 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>57</v>
@@ -5433,9 +5460,11 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>57</v>
@@ -5458,9 +5487,11 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>57</v>
@@ -5483,9 +5514,11 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>58</v>
@@ -5508,9 +5541,11 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>59</v>
@@ -5530,7 +5565,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5554,13 +5589,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5574,18 +5609,18 @@
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5594,9 +5629,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -5606,29 +5641,29 @@
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>96</v>
@@ -5640,23 +5675,22 @@
         <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>97</v>
@@ -5669,23 +5703,22 @@
         <v/>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>98</v>
@@ -5698,21 +5731,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>99</v>
@@ -5725,21 +5758,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>100</v>
@@ -5752,21 +5785,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>101</v>
@@ -5779,21 +5812,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>80</v>
@@ -5806,21 +5839,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>102</v>
@@ -5833,21 +5866,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>107</v>
@@ -5860,7 +5893,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2007</v>
       </c>
@@ -5870,9 +5903,11 @@
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>103</v>
@@ -5885,7 +5920,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2008</v>
       </c>
@@ -5895,9 +5930,11 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>30</v>
@@ -5910,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2009</v>
       </c>
@@ -5920,9 +5957,11 @@
       <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>104</v>
@@ -5935,7 +5974,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2010</v>
       </c>
@@ -5945,9 +5984,11 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>32</v>
@@ -5960,7 +6001,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2011</v>
       </c>
@@ -5970,9 +6011,11 @@
       <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>103</v>
@@ -5995,9 +6038,11 @@
       <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>31</v>
@@ -6020,9 +6065,11 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>105</v>
@@ -6045,9 +6092,11 @@
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>35</v>
@@ -6070,9 +6119,11 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>57</v>
@@ -6095,9 +6146,11 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>57</v>
@@ -6120,9 +6173,11 @@
       <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>58</v>
@@ -6145,9 +6200,11 @@
       <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="10" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>106</v>
@@ -6167,7 +6224,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671744C9-1DE8-4B8D-BF32-203719E86E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="113">
   <si>
     <t>Year</t>
   </si>
@@ -698,13 +699,25 @@
   </si>
   <si>
     <t>Obv: Without mint director symbol</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>11.500</t>
+  </si>
+  <si>
+    <t>7.980.000</t>
+  </si>
+  <si>
+    <t>5.970.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -753,8 +766,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3B285"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,13 +1000,227 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1077,16 +1318,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="27" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1354,28 +1595,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="A23:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1635,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -1411,7 +1652,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -1435,7 +1676,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -1459,7 +1700,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -1483,7 +1724,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -1508,7 +1749,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -1533,7 +1774,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -1557,7 +1798,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -1581,7 +1822,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -1605,7 +1846,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -1629,7 +1870,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -1653,7 +1894,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -1677,7 +1918,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -1701,7 +1942,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -1725,7 +1966,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -1749,7 +1990,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -1773,7 +2014,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -1797,7 +2038,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -1821,7 +2062,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -1845,7 +2086,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -1869,7 +2110,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -1890,6 +2131,54 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1900,8 +2189,38 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1921,28 +2240,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11:D22"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2280,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -1978,7 +2297,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -1998,12 +2317,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2028,7 +2347,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -2052,7 +2371,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -2076,7 +2395,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -2100,7 +2419,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -2124,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -2148,7 +2467,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -2172,7 +2491,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -2196,7 +2515,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -2220,7 +2539,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -2244,7 +2563,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -2268,7 +2587,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -2292,7 +2611,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -2316,7 +2635,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2340,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2364,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2388,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2412,7 +2731,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2436,7 +2755,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2456,6 +2775,54 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2467,8 +2834,38 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2488,28 +2885,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11:D22"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2925,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -2545,7 +2942,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -2565,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2595,7 +2992,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -2619,7 +3016,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -2643,7 +3040,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -2667,7 +3064,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -2691,7 +3088,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -2715,7 +3112,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -2739,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -2763,7 +3160,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -2787,7 +3184,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -2811,7 +3208,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -2835,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -2859,7 +3256,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -2883,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2907,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2931,7 +3328,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2955,7 +3352,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2979,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -3003,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3023,6 +3420,54 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23" si="1">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3034,8 +3479,38 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3055,28 +3530,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3571,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -3116,7 +3591,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -3143,7 +3618,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3170,7 +3645,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3197,7 +3672,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3225,7 +3700,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3253,7 +3728,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3280,7 +3755,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3307,7 +3782,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3334,7 +3809,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3361,7 +3836,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3388,7 +3863,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3415,7 +3890,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3442,7 +3917,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3469,7 +3944,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3496,7 +3971,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -3523,7 +3998,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -3550,7 +4025,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -3577,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -3604,7 +4079,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -3631,7 +4106,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3655,6 +4130,60 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3665,11 +4194,41 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3688,28 +4247,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +4288,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -3749,7 +4308,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -3772,12 +4331,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3805,7 +4364,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3832,7 +4391,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3859,7 +4418,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3886,7 +4445,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3913,7 +4472,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3940,7 +4499,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3967,7 +4526,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3994,7 +4553,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -4021,7 +4580,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -4048,7 +4607,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -4075,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -4102,7 +4661,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -4129,7 +4688,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -4156,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -4183,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -4210,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -4237,7 +4796,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -4264,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -4287,6 +4846,60 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4298,11 +4911,41 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4321,28 +4964,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:E22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4362,7 +5005,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -4382,7 +5025,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -4405,12 +5048,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -4438,7 +5081,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -4465,7 +5108,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -4492,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -4519,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -4546,7 +5189,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -4573,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -4600,7 +5243,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -4627,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -4654,7 +5297,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -4681,7 +5324,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -4708,7 +5351,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -4735,7 +5378,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -4762,7 +5405,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -4789,7 +5432,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -4816,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -4843,7 +5486,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -4870,7 +5513,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -4897,7 +5540,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -4920,6 +5563,60 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4931,11 +5628,41 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4954,28 +5681,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="F24:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +5722,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -5015,7 +5742,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5043,7 +5770,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5072,7 +5799,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5099,7 +5826,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5126,7 +5853,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -5153,7 +5880,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -5180,7 +5907,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -5207,7 +5934,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -5234,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -5261,7 +5988,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -5288,7 +6015,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -5315,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -5342,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -5369,7 +6096,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -5396,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -5423,7 +6150,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -5450,7 +6177,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -5477,7 +6204,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -5504,7 +6231,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -5531,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -5555,6 +6282,60 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5565,11 +6346,41 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5588,28 +6399,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -5629,7 +6440,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -5649,7 +6460,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5672,11 +6483,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5704,7 +6515,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5731,7 +6542,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5758,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -5785,7 +6596,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -5812,7 +6623,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -5839,7 +6650,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -5866,7 +6677,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2006</v>
       </c>
@@ -5893,7 +6704,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2007</v>
       </c>
@@ -5920,7 +6731,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2008</v>
       </c>
@@ -5947,7 +6758,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2009</v>
       </c>
@@ -5974,7 +6785,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2010</v>
       </c>
@@ -6001,7 +6812,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2011</v>
       </c>
@@ -6028,7 +6839,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2012</v>
       </c>
@@ -6055,7 +6866,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2013</v>
       </c>
@@ -6082,7 +6893,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2014</v>
       </c>
@@ -6109,7 +6920,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2015</v>
       </c>
@@ -6136,7 +6947,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2016</v>
       </c>
@@ -6163,7 +6974,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2017</v>
       </c>
@@ -6190,7 +7001,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -6213,6 +7024,60 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6224,11 +7089,43 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6247,7 +7144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6257,14 +7154,14 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +7172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6286,7 +7183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6297,7 +7194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6308,7 +7205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -6319,7 +7216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -6330,7 +7227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -6343,12 +7240,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671744C9-1DE8-4B8D-BF32-203719E86E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E9774-F701-4CCC-B7A5-9A22619FA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="116">
   <si>
     <t>Year</t>
   </si>
@@ -711,13 +720,22 @@
   </si>
   <si>
     <t>5.970.000</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>7.502.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.000.000	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -773,6 +791,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -985,6 +1007,12 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,19 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1020,6 +1042,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1213,87 +1244,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1325,9 +1275,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="27" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1596,37 +1546,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="A23:G24"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1635,9 +1585,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1652,7 +1602,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -1676,7 +1626,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -1700,7 +1650,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -1724,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -1749,7 +1699,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -1774,7 +1724,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -1798,7 +1748,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -1822,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -1846,7 +1796,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -1870,7 +1820,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -1894,7 +1844,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -1918,7 +1868,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -1942,7 +1892,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -1966,7 +1916,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -1990,7 +1940,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2014,7 +1964,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2038,7 +1988,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2062,7 +2012,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2086,7 +2036,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2110,7 +2060,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2134,20 +2084,20 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2158,7 +2108,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -2171,7 +2121,7 @@
       <c r="D24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2179,6 +2129,78 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2188,8 +2210,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2204,7 +2227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2218,8 +2241,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2241,37 +2264,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2280,9 +2303,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2320,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -2322,7 +2345,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2347,7 +2370,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -2371,7 +2394,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -2395,7 +2418,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -2419,7 +2442,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -2443,7 +2466,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -2467,7 +2490,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -2491,7 +2514,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -2515,7 +2538,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -2539,7 +2562,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -2563,7 +2586,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -2587,7 +2610,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -2611,7 +2634,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -2635,7 +2658,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2659,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2683,7 +2706,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2707,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2731,7 +2754,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2755,7 +2778,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2779,20 +2802,20 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2803,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -2816,7 +2839,7 @@
       <c r="D24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2824,6 +2847,78 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2833,8 +2928,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2849,7 +2945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2863,8 +2959,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2886,37 +2982,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2925,9 +3021,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2942,7 +3038,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -2967,7 +3063,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2992,7 +3088,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3016,7 +3112,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3040,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3064,7 +3160,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3088,7 +3184,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3112,7 +3208,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3136,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3160,7 +3256,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3184,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3208,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3232,7 +3328,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3256,7 +3352,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3280,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -3304,7 +3400,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -3328,7 +3424,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -3352,7 +3448,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -3376,7 +3472,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -3400,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3424,7 +3520,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
@@ -3448,7 +3544,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -3461,7 +3557,7 @@
       <c r="D24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3469,6 +3565,78 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3478,8 +3646,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3493,8 +3662,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3509,7 +3678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3531,38 +3700,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3571,9 +3740,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3760,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -3618,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3645,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -3672,7 +3841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -3700,7 +3869,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -3728,7 +3897,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -3755,7 +3924,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -3782,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -3809,7 +3978,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -3836,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -3863,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -3890,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -3917,7 +4086,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -3944,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -3971,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -3998,7 +4167,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -4025,7 +4194,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -4052,7 +4221,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -4079,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -4106,7 +4275,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -4133,23 +4302,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4160,7 +4329,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -4176,7 +4345,7 @@
       <c r="E24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4184,6 +4353,87 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4193,8 +4443,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4211,7 +4462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4225,8 +4476,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24:G27">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4248,38 +4499,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4288,9 +4539,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4308,7 +4559,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -4336,7 +4587,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -4364,7 +4615,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -4391,7 +4642,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -4418,7 +4669,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -4445,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -4472,7 +4723,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -4499,7 +4750,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -4526,7 +4777,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -4553,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -4580,7 +4831,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -4607,7 +4858,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -4634,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -4661,7 +4912,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -4688,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -4715,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -4742,7 +4993,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -4769,7 +5020,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -4796,7 +5047,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -4823,7 +5074,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -4850,23 +5101,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4877,7 +5128,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -4893,7 +5144,7 @@
       <c r="E24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4901,6 +5152,87 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4910,8 +5242,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4928,7 +5261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4942,8 +5275,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24:G27">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4965,38 +5298,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H24"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5005,9 +5338,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +5358,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5053,7 +5386,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5081,7 +5414,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5108,7 +5441,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5135,7 +5468,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -5162,7 +5495,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -5189,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -5216,7 +5549,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -5243,7 +5576,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -5270,7 +5603,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -5297,7 +5630,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -5324,7 +5657,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -5351,7 +5684,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -5378,7 +5711,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -5405,7 +5738,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -5432,7 +5765,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -5459,7 +5792,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -5486,7 +5819,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -5513,7 +5846,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -5540,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -5567,23 +5900,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -5594,7 +5927,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -5610,7 +5943,7 @@
       <c r="E24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -5618,6 +5951,87 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5627,12 +6041,28 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5644,9 +6074,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5659,10 +6089,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5682,38 +6114,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="F24:G24"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5722,9 +6154,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +6174,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -5770,7 +6202,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -5799,7 +6231,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -5826,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -5853,7 +6285,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -5880,7 +6312,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -5907,7 +6339,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -5934,7 +6366,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -5961,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
@@ -5988,7 +6420,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
@@ -6015,7 +6447,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2009</v>
       </c>
@@ -6042,7 +6474,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -6069,7 +6501,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -6096,7 +6528,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -6123,7 +6555,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -6150,7 +6582,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -6177,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -6204,7 +6636,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -6231,7 +6663,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -6258,7 +6690,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -6285,23 +6717,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -6312,7 +6744,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2020</v>
       </c>
@@ -6328,7 +6760,7 @@
       <c r="E24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -6336,6 +6768,87 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6345,8 +6858,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6363,7 +6877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6377,8 +6891,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24:G27">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6400,38 +6914,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F26:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
@@ -6440,9 +6954,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -6460,7 +6974,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
@@ -6487,7 +7001,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -6515,7 +7029,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
@@ -6542,7 +7056,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -6569,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
@@ -6596,7 +7110,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
@@ -6623,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
@@ -6650,7 +7164,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
@@ -6677,7 +7191,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2006</v>
       </c>
@@ -6704,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2007</v>
       </c>
@@ -6731,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2008</v>
       </c>
@@ -6758,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2009</v>
       </c>
@@ -6785,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2010</v>
       </c>
@@ -6812,7 +7326,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2011</v>
       </c>
@@ -6839,7 +7353,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2012</v>
       </c>
@@ -6866,7 +7380,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2013</v>
       </c>
@@ -6893,7 +7407,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2014</v>
       </c>
@@ -6920,7 +7434,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2015</v>
       </c>
@@ -6947,7 +7461,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2016</v>
       </c>
@@ -6974,7 +7488,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2017</v>
       </c>
@@ -7001,7 +7515,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -7028,7 +7542,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2019</v>
       </c>
@@ -7055,7 +7569,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2020</v>
       </c>
@@ -7071,7 +7585,7 @@
       <c r="E25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -7079,6 +7593,87 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H28" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7088,8 +7683,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7105,8 +7701,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25:G28">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7121,7 +7717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7154,14 +7750,14 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -7172,7 +7768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -7183,7 +7779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -7194,7 +7790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -7205,7 +7801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -7216,7 +7812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -7227,7 +7823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E9774-F701-4CCC-B7A5-9A22619FA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD85F2-E3BA-4381-AB3E-5F4171347E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2250" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -729,6 +726,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.000.000	</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1036,14 +1036,6 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1051,6 +1043,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1275,9 +1275,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1548,11 +1548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1571,17 +1571,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1589,16 +1589,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1607,16 +1607,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1631,16 +1631,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1729,16 +1729,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1753,16 +1753,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1825,16 +1825,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1873,16 +1873,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1945,16 +1945,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1993,16 +1993,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2065,16 +2065,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
@@ -2113,19 +2113,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2137,19 +2137,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25:G27" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -2161,19 +2161,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2185,19 +2185,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2270,7 +2270,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2289,17 +2289,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2307,16 +2307,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2325,16 +2325,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2350,16 +2350,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2423,16 +2423,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -2471,16 +2471,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2519,16 +2519,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2615,16 +2615,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2663,16 +2663,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2711,16 +2711,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2759,16 +2759,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2783,16 +2783,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2807,19 +2807,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2831,19 +2831,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2855,19 +2855,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -2879,19 +2879,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2903,19 +2903,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2988,7 +2988,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3007,17 +3007,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3025,16 +3025,16 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3043,16 +3043,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3068,16 +3068,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -3093,16 +3093,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -3117,16 +3117,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3141,16 +3141,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3213,16 +3213,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3285,16 +3285,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3381,16 +3381,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3405,16 +3405,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3453,16 +3453,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3501,16 +3501,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3549,19 +3549,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3573,19 +3573,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25:G27" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -3597,19 +3597,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3621,19 +3621,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3706,7 +3706,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3725,18 +3725,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -3744,19 +3744,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3765,19 +3765,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3792,19 +3792,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3819,19 +3819,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3846,19 +3846,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3874,19 +3874,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3902,19 +3902,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3929,19 +3929,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -3956,19 +3956,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4010,19 +4010,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4037,19 +4037,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4091,19 +4091,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4118,19 +4118,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4145,19 +4145,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4172,19 +4172,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4199,19 +4199,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4226,19 +4226,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4253,19 +4253,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4280,19 +4280,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4307,22 +4307,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -4334,22 +4334,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4361,22 +4361,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -4388,22 +4388,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4415,22 +4415,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4505,7 +4505,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F25:F26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4524,18 +4524,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -4543,19 +4543,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4564,19 +4564,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4592,19 +4592,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4620,19 +4620,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -4647,19 +4647,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4674,19 +4674,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4701,19 +4701,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4728,19 +4728,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4755,19 +4755,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4782,19 +4782,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4809,19 +4809,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4836,19 +4836,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4863,19 +4863,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4890,19 +4890,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4917,19 +4917,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4944,19 +4944,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4971,19 +4971,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4998,19 +4998,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5025,19 +5025,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5052,19 +5052,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5079,19 +5079,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5106,22 +5106,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5133,22 +5133,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5160,22 +5160,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -5187,22 +5187,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5214,22 +5214,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5304,7 +5304,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F25:F26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5323,18 +5323,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -5342,19 +5342,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5363,19 +5363,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5391,19 +5391,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5419,19 +5419,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5446,19 +5446,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5473,19 +5473,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5500,19 +5500,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5554,19 +5554,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5608,19 +5608,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5635,19 +5635,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5662,19 +5662,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5689,19 +5689,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5716,19 +5716,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5743,19 +5743,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5770,19 +5770,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5797,19 +5797,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5824,19 +5824,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5851,19 +5851,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5878,19 +5878,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5905,22 +5905,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5932,22 +5932,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5959,22 +5959,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -5986,22 +5986,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6013,19 +6013,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -6090,7 +6090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6120,7 +6120,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25:F27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6139,18 +6139,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -6158,19 +6158,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6179,19 +6179,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6207,19 +6207,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6236,19 +6236,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6263,19 +6263,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -6290,19 +6290,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -6317,19 +6317,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6344,19 +6344,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -6398,19 +6398,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -6425,19 +6425,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -6452,19 +6452,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -6479,19 +6479,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -6506,19 +6506,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6533,19 +6533,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6587,19 +6587,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6614,19 +6614,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6641,19 +6641,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6668,19 +6668,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6695,19 +6695,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6722,22 +6722,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6749,22 +6749,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6776,22 +6776,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -6803,22 +6803,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6830,22 +6830,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6860,7 +6860,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +6877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6892,7 +6892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6916,11 +6916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F26:F28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6939,18 +6939,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -6958,19 +6958,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6979,19 +6979,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7006,19 +7006,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -7034,19 +7034,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -7061,19 +7061,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -7088,19 +7088,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -7115,19 +7115,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -7142,19 +7142,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -7169,19 +7169,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -7196,19 +7196,19 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -7223,19 +7223,19 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -7250,19 +7250,19 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -7277,19 +7277,19 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -7304,19 +7304,19 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -7358,19 +7358,19 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -7385,19 +7385,19 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -7412,19 +7412,19 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -7439,19 +7439,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -7466,19 +7466,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -7493,19 +7493,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -7520,19 +7520,19 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -7547,19 +7547,19 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7574,22 +7574,22 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7601,22 +7601,22 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" ref="H26:H28" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
@@ -7628,22 +7628,22 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7655,22 +7655,22 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7685,7 +7685,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7702,7 +7702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7717,7 +7717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7759,13 +7759,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7773,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7784,10 +7784,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7795,10 +7795,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7806,10 +7806,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7817,10 +7817,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7828,10 +7828,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD85F2-E3BA-4381-AB3E-5F4171347E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F297BAE-D369-426B-B5CF-FF62114BAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2250" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2988,7 +2988,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3105,11 +3105,11 @@
         <v>64</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4501,11 +4501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4662,7 +4662,7 @@
         <v>78</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6916,7 +6916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F297BAE-D369-426B-B5CF-FF62114BAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E59D31-48D6-42B3-AA65-090B3A086E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="116">
   <si>
     <t>Year</t>
   </si>
@@ -1034,7 +1034,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1275,9 +1283,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2212,7 +2220,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2227,7 +2235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2242,7 +2250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2930,7 +2938,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2945,7 +2953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2960,7 +2968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2984,7 +2992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3648,7 +3656,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3663,7 +3671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3678,7 +3686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4445,7 +4453,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4462,7 +4470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4477,7 +4485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4501,11 +4509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5228,8 +5236,8 @@
       <c r="F27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>108</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5244,11 +5252,26 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5260,9 +5283,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5275,10 +5298,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6043,7 +6068,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6060,7 +6085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6075,7 +6100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6090,7 +6115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6860,7 +6885,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +6902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6892,7 +6917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7685,7 +7710,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7702,7 +7727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7717,7 +7742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7747,7 +7772,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E59D31-48D6-42B3-AA65-090B3A086E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A7214-3DD7-4A4E-A43E-2AF72387F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1036,14 +1036,6 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1051,6 +1043,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1283,9 +1283,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1560,7 +1560,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2992,11 +2992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3710,11 +3710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3815,7 +3815,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5299,7 +5299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6068,7 +6068,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6085,7 +6085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6100,7 +6100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6115,7 +6115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6885,7 +6885,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6902,7 +6902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6917,7 +6917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7710,7 +7710,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7727,7 +7727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7742,7 +7742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A7214-3DD7-4A4E-A43E-2AF72387F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89028E81-933F-4B1A-8256-3DFD6F049EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -387,12 +397,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -515,9 +519,6 @@
     <t>Obv: The fruit and leaves of the cloudberry</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>8.100.000</t>
   </si>
   <si>
@@ -729,6 +730,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -795,6 +808,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -943,7 +958,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1031,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,15 +1053,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1252,6 +1261,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1283,9 +1301,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="27" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1557,56 +1575,55 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1615,16 +1632,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1639,16 +1656,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1663,16 +1680,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1687,16 +1704,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1712,16 +1729,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1737,16 +1754,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1761,16 +1778,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1785,16 +1802,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1809,16 +1826,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1833,16 +1850,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1857,16 +1874,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1881,16 +1898,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1905,16 +1922,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1929,16 +1946,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1953,16 +1970,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1977,16 +1994,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2001,16 +2018,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2025,16 +2042,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2049,16 +2066,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2073,16 +2090,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2097,19 +2114,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
@@ -2121,19 +2138,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2145,19 +2162,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25:G27" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -2169,19 +2186,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2193,19 +2210,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2213,14 +2230,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2235,728 +2252,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2988,6 +2287,723 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
@@ -2996,53 +3012,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3051,16 +3066,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3076,16 +3091,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -3101,16 +3116,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -3125,16 +3140,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3149,16 +3164,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3173,16 +3188,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3197,16 +3212,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3221,16 +3236,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3245,16 +3260,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3269,16 +3284,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3293,16 +3308,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3317,16 +3332,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3341,16 +3356,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3365,16 +3380,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3389,16 +3404,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3413,16 +3428,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3437,16 +3452,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3461,16 +3476,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3485,16 +3500,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3509,16 +3524,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3533,16 +3548,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3557,19 +3572,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3581,19 +3596,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25:G27" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
@@ -3605,19 +3620,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3629,19 +3644,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3649,14 +3664,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3671,7 +3686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3686,7 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3714,57 +3729,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3773,19 +3787,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3800,19 +3814,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3827,19 +3841,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3854,19 +3868,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3882,19 +3896,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3910,19 +3924,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3937,19 +3951,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -3964,19 +3978,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3991,19 +4005,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4018,19 +4032,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4045,19 +4059,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4072,19 +4086,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4099,19 +4113,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4126,19 +4140,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4153,19 +4167,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4180,19 +4194,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4207,19 +4221,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4234,19 +4248,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4261,19 +4275,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4288,19 +4302,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4315,22 +4329,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -4342,22 +4356,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4369,22 +4383,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -4396,22 +4410,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4423,22 +4437,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4446,14 +4460,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4470,7 +4484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4485,7 +4499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4513,57 +4527,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4572,19 +4585,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4600,19 +4613,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4628,19 +4641,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -4655,19 +4668,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4682,19 +4695,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4709,19 +4722,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4736,19 +4749,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4763,19 +4776,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4790,19 +4803,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4817,19 +4830,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -4844,19 +4857,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4871,19 +4884,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4898,19 +4911,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4925,19 +4938,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4952,19 +4965,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4979,19 +4992,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5006,19 +5019,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5033,19 +5046,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5060,19 +5073,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5087,19 +5100,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5114,22 +5127,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5141,22 +5154,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5168,22 +5181,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -5195,22 +5208,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5222,19 +5235,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -5245,14 +5258,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5269,7 +5282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5284,7 +5297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5299,7 +5312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5329,57 +5342,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5388,19 +5400,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5416,19 +5428,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5444,19 +5456,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5471,19 +5483,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5498,19 +5510,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5525,19 +5537,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5552,19 +5564,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5579,19 +5591,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5606,19 +5618,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5633,19 +5645,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5660,19 +5672,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5687,19 +5699,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5714,19 +5726,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5741,19 +5753,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5768,19 +5780,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5795,19 +5807,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5822,19 +5834,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5849,19 +5861,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5876,19 +5888,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5903,19 +5915,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5930,22 +5942,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5957,22 +5969,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5984,22 +5996,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -6011,22 +6023,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6038,19 +6050,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -6061,14 +6073,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6085,7 +6097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6100,7 +6112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6115,7 +6127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6145,57 +6157,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6204,19 +6215,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6232,19 +6243,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6261,19 +6272,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6288,19 +6299,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -6315,19 +6326,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -6342,19 +6353,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6369,19 +6380,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6396,19 +6407,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -6423,19 +6434,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -6450,19 +6461,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -6477,19 +6488,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -6504,19 +6515,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -6531,19 +6542,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6558,19 +6569,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6585,19 +6596,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6612,19 +6623,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6639,19 +6650,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6666,19 +6677,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6693,19 +6704,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6720,19 +6731,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6747,22 +6758,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H24" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6774,22 +6785,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6801,22 +6812,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ref="H25:H27" si="2">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -6828,22 +6839,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6855,22 +6866,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6878,14 +6889,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6902,7 +6913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6917,7 +6928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6945,57 +6956,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7004,19 +7014,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7031,19 +7041,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -7059,19 +7069,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -7086,19 +7096,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -7113,19 +7123,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -7140,19 +7150,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -7167,19 +7177,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -7194,19 +7204,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -7221,19 +7231,19 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -7248,19 +7258,19 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -7275,19 +7285,19 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -7302,19 +7312,19 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -7329,19 +7339,19 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -7356,19 +7366,19 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -7383,19 +7393,19 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -7410,19 +7420,19 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -7437,19 +7447,19 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -7464,19 +7474,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -7491,19 +7501,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -7518,19 +7528,19 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -7545,19 +7555,19 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -7572,19 +7582,19 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -7599,22 +7609,22 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7626,22 +7636,22 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" ref="H26:H28" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
@@ -7653,22 +7663,22 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7680,22 +7690,22 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7703,14 +7713,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7727,7 +7737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7742,7 +7752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7784,13 +7794,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7798,10 +7808,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7809,10 +7819,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7820,10 +7830,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7831,10 +7841,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7842,10 +7852,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7853,10 +7863,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89028E81-933F-4B1A-8256-3DFD6F049EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD55BFA-F24F-485A-9672-D93D3F8BE68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1054,6 +1054,15 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1261,15 +1270,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1301,9 +1301,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="27" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1574,11 +1574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57:B58"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1814,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2237,7 +2237,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2252,10 +2252,727 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2287,15 +3004,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2321,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2358,7 +3075,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2383,10 +3100,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2408,10 +3125,10 @@
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2432,7 +3149,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2456,7 +3173,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2480,10 +3197,10 @@
         <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2504,7 +3221,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2528,727 +3245,10 @@
         <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ref="G25:G27" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3671,7 +3671,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3686,7 +3686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3701,7 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3725,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4467,7 +4467,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4484,7 +4484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4499,7 +4499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5265,7 +5265,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5282,7 +5282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5297,7 +5297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5312,7 +5312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6080,7 +6080,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6097,7 +6097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6112,7 +6112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G26">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6127,7 +6127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6896,7 +6896,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6913,7 +6913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6928,7 +6928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7720,7 +7720,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G23">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7737,7 +7737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7752,7 +7752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
